--- a/data/procon/analysis.xlsx
+++ b/data/procon/analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box\python\Cov2_protein\data\procon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16D79E7-EFDB-4D21-92C7-A315AC5445E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DE40CC-DCE8-4277-A9DA-F6F9E6FF6135}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="86">
+  <si>
+    <t>aa</t>
+  </si>
   <si>
     <t>position</t>
   </si>
@@ -36,154 +39,232 @@
     <t>rate(%)</t>
   </si>
   <si>
-    <t>编号:1, WHO 标签:Alpha, Lineage:B.1.1.7, 变异:N501Y, D614G, P681H, 类别:Variants of Concern (VOC)</t>
+    <t>1-B.1.1.7(Alpha)</t>
+  </si>
+  <si>
+    <t>N501Y</t>
   </si>
   <si>
     <t>501N</t>
   </si>
   <si>
+    <t>D614G</t>
+  </si>
+  <si>
     <t>614D</t>
   </si>
   <si>
-    <t>编号:2, WHO 标签:nan, Lineage:B.1.1.7+E484K, 变异:E484K, N501Y, D614G, P681H, 类别:Variants of Concern (VOC)</t>
-  </si>
-  <si>
-    <t>编号:3, WHO 标签:Beta, Lineage:B.1.351, 变异:K417N, E484K, N501Y, D614G, A701V, 类别:Variants of Concern (VOC)</t>
+    <t>P681H</t>
+  </si>
+  <si>
+    <t>2-B.1.1.7+E484K(nan)</t>
+  </si>
+  <si>
+    <t>E484K</t>
+  </si>
+  <si>
+    <t>3-B.1.351(Beta)</t>
+  </si>
+  <si>
+    <t>K417N</t>
   </si>
   <si>
     <t>417K</t>
   </si>
   <si>
+    <t>A701V</t>
+  </si>
+  <si>
     <t>701A</t>
   </si>
   <si>
-    <t>编号:4, WHO 标签:Gamma, Lineage:P.1, 变异:K417T, E484K, N501Y, D614G, H655Y, 类别:Variants of Concern (VOC)</t>
+    <t>4-P.1(Gamma)</t>
+  </si>
+  <si>
+    <t>H655Y</t>
   </si>
   <si>
     <t>655H</t>
   </si>
   <si>
-    <t>编号:5, WHO 标签:Delta, Lineage:B.1.617.2, 变异:L452R, T478K, D614G, P681R, 类别:Variants of Concern (VOC)</t>
+    <t>5-B.1.617.2(Delta)</t>
+  </si>
+  <si>
+    <t>L452R</t>
   </si>
   <si>
     <t>452L</t>
   </si>
   <si>
-    <t>编号:6, WHO 标签:Eta, Lineage:B.1.525, 变异:E484K, D614G, Q677H, 类别:Variants of interest (VOI)</t>
-  </si>
-  <si>
-    <t>编号:7, WHO 标签:Theta, Lineage:P.3, 变异:E484K, N501Y, D614G, P681H, 类别:Variants of interest (VOI)</t>
-  </si>
-  <si>
-    <t>编号:8, WHO 标签:Kappa, Lineage:B.1.617.1, 变异:L452R, E484Q, D614G, P681R, 类别:Variants of interest (VOI)</t>
-  </si>
-  <si>
-    <t>编号:9, WHO 标签:nan, Lineage:B.1.620, 变异:S477N, E484K, D614G, P681H, 类别:Variants of interest (VOI)</t>
-  </si>
-  <si>
-    <t>编号:10, WHO 标签:nan, Lineage:B.1.621, 变异:R346K, E484K, N501Y, D614G, P681H, 类别:Variants of interest (VOI)</t>
+    <t>T478K</t>
+  </si>
+  <si>
+    <t>P681R</t>
+  </si>
+  <si>
+    <t>6-B.1.525(Eta)</t>
+  </si>
+  <si>
+    <t>Q677H</t>
+  </si>
+  <si>
+    <t>7-P.3(Theta)</t>
+  </si>
+  <si>
+    <t>8-B.1.617.1(Kappa)</t>
+  </si>
+  <si>
+    <t>E484Q</t>
+  </si>
+  <si>
+    <t>9-B.1.620(nan)</t>
+  </si>
+  <si>
+    <t>S477N</t>
+  </si>
+  <si>
+    <t>10-B.1.621(nan)</t>
+  </si>
+  <si>
+    <t>R346K</t>
   </si>
   <si>
     <t>346R</t>
   </si>
   <si>
-    <t>编号:11, WHO 标签:Lambda, Lineage:C.37, 变异:L452Q, F490S, D614G, 类别:Variants of interest (VOI)</t>
-  </si>
-  <si>
-    <t>编号:12, WHO 标签:nan, Lineage:B.1.617.3, 变异:L452R, E484Q, D614G, P681R, 类别:Variants under monitoring</t>
-  </si>
-  <si>
-    <t>编号:13, WHO 标签:nan, Lineage:B.1.214.2, 变异:Q414K, N450K, D614G, 类别:Variants under monitoring</t>
+    <t>11-C.37(Lambda)</t>
+  </si>
+  <si>
+    <t>F490S</t>
+  </si>
+  <si>
+    <t>12-B.1.617.3(nan)</t>
+  </si>
+  <si>
+    <t>13-B.1.214.2(nan)</t>
+  </si>
+  <si>
+    <t>Q414K</t>
   </si>
   <si>
     <t>414Q</t>
   </si>
   <si>
+    <t>N450K</t>
+  </si>
+  <si>
     <t>450N</t>
   </si>
   <si>
-    <t>编号:14, WHO 标签:nan, Lineage:A.23.1+E484K, 变异:V367F, E484K, Q613H, 类别:Variants under monitoring</t>
+    <t>14-A.23.1+E484K(nan)</t>
+  </si>
+  <si>
+    <t>V367F</t>
   </si>
   <si>
     <t>367V</t>
   </si>
   <si>
+    <t>Q613H</t>
+  </si>
+  <si>
     <t>613Q</t>
   </si>
   <si>
-    <t>编号:15, WHO 标签:nan, Lineage:A.27, 变异:L452R, N501Y, A653V, H655Y, 类别:Variants under monitoring</t>
+    <t>15-A.27(nan)</t>
+  </si>
+  <si>
+    <t>A653V</t>
   </si>
   <si>
     <t>653A</t>
   </si>
   <si>
-    <t>编号:16, WHO 标签:nan, Lineage:A.28, 变异:E484K, N501T, H655Y, 类别:Variants under monitoring</t>
-  </si>
-  <si>
-    <t>编号:17, WHO 标签:nan, Lineage:C.16, 变异:L452R, D614G, 类别:Variants under monitoring</t>
-  </si>
-  <si>
-    <t>编号:18, WHO 标签:nan, Lineage:B.1.351+P384L, 变异:P384L, K417N, E484K, N501Y, D614G, A701V, 类别:Variants under monitoring</t>
+    <t>16-A.28(nan)</t>
+  </si>
+  <si>
+    <t>17-C.16(nan)</t>
+  </si>
+  <si>
+    <t>18-B.1.351+P384L(nan)</t>
+  </si>
+  <si>
+    <t>P384L</t>
   </si>
   <si>
     <t>384P</t>
   </si>
   <si>
-    <t>编号:19, WHO 标签:nan, Lineage:B.1.351+E516Q, 变异:K417N, E484K, N501Y, E516Q, D614G, A701V, 类别:Variants under monitoring</t>
+    <t>19-B.1.351+E516Q(nan)</t>
+  </si>
+  <si>
+    <t>E516Q</t>
   </si>
   <si>
     <t>516E</t>
   </si>
   <si>
-    <t>编号:20, WHO 标签:nan, Lineage:B.1.1.7+L452R, 变异:L452R, N501Y, D614G, P681H, 类别:Variants under monitoring</t>
-  </si>
-  <si>
-    <t>编号:21, WHO 标签:nan, Lineage:B.1.1.7+S494P, 变异:S494P, N501Y, D614G, P681H, 类别:Variants under monitoring</t>
-  </si>
-  <si>
-    <t>编号:22, WHO 标签:nan, Lineage:C.36+L452R, 变异:L452R, D614G, Q677H, 类别:Variants under monitoring</t>
-  </si>
-  <si>
-    <t>编号:23, WHO 标签:nan, Lineage:AT.1, 变异:E484K, D614G, N679K, 类别:Variants under monitoring</t>
-  </si>
-  <si>
-    <t>编号:24, WHO 标签:Iota, Lineage:B.1.526 (d), 变异: E484K, D614G, A701V, 类别:Variants under monitoring</t>
-  </si>
-  <si>
-    <t>编号:25, WHO 标签:nan, Lineage:B.1.526.1 (d), 变异:L452R, D614G, 类别:Variants under monitoring</t>
-  </si>
-  <si>
-    <t>编号:26, WHO 标签:nan, Lineage:B.1.526.2 (d), 变异:S477N, D614G, 类别:Variants under monitoring</t>
-  </si>
-  <si>
-    <t>编号:27, WHO 标签:nan, Lineage:B.1.1.318, 变异:E484K, D614G, P681H, 类别:Variants under monitoring</t>
-  </si>
-  <si>
-    <t>编号:28, WHO 标签:Zeta, Lineage:P.2, 变异:E484K, D614G, 类别:Variants under monitoring</t>
-  </si>
-  <si>
-    <t>编号:29, WHO 标签:nan, Lineage:B.1.1.519, 变异:T478K, D614G, 类别:Variants under monitoring</t>
-  </si>
-  <si>
-    <t>编号:30, WHO 标签:nan, Lineage:AV.1, 变异:N439K, E484K, D614G, P681H, 类别:Variants under monitoring</t>
+    <t>20-B.1.1.7+L452R(nan)</t>
+  </si>
+  <si>
+    <t>21-B.1.1.7+S494P(nan)</t>
+  </si>
+  <si>
+    <t>S494P</t>
+  </si>
+  <si>
+    <t>22-C.36+L452R(nan)</t>
+  </si>
+  <si>
+    <t>23-AT.1(nan)</t>
+  </si>
+  <si>
+    <t>N679K</t>
+  </si>
+  <si>
+    <t>24-B.1.526 (d)(Iota)</t>
+  </si>
+  <si>
+    <t>25-B.1.526.1 (d)(nan)</t>
+  </si>
+  <si>
+    <t>26-B.1.526.2 (d)(nan)</t>
+  </si>
+  <si>
+    <t>27-B.1.1.318(nan)</t>
+  </si>
+  <si>
+    <t>28-P.2(Zeta)</t>
+  </si>
+  <si>
+    <t>29-B.1.1.519(nan)</t>
+  </si>
+  <si>
+    <t>30-AV.1(nan)</t>
+  </si>
+  <si>
+    <t>N439K</t>
   </si>
   <si>
     <t>439N</t>
   </si>
   <si>
-    <t>编号:31, WHO 标签:nan, Lineage:P.1+P681H, 变异:D614G, E484K, H655Y, K417T, N501Y, P681H, 类别:Variants under monitoring</t>
-  </si>
-  <si>
-    <t>编号:32, WHO 标签:nan, Lineage:B.1.617.2 + K417N, 变异:L452R, T478K, D614G, P681R, K417N, 类别:Variants under monitoring</t>
-  </si>
-  <si>
-    <t>编号:33, WHO 标签:nan, Lineage:C.1.2, 变异:D614G, E484K, H655Y, N501Y, N679K, Y449H, 类别:Variants under monitoring</t>
-  </si>
-  <si>
-    <t>编号:34, WHO 标签:nan, Lineage:B.1.617.2 + E484Q, 变异:L452R, T478K, D614G, P681R, E484Q, 类别:Variants under monitoring</t>
-  </si>
-  <si>
-    <t>编号:35, WHO 标签:nan, Lineage:B.1.617.2 + Q613H, 变异:L452R, T478K, D614G, P681R, Q613H, 类别:Variants under monitoring</t>
+    <t>31-P.1+P681H(nan)</t>
+  </si>
+  <si>
+    <t>32-B.1.617.2 + K417N(nan)</t>
+  </si>
+  <si>
+    <t>33-C.1.2(nan)</t>
+  </si>
+  <si>
+    <t>Y449H</t>
+  </si>
+  <si>
+    <t>34-B.1.617.2 + E484Q(nan)</t>
+  </si>
+  <si>
+    <t>35-B.1.617.2 + Q613H(nan)</t>
   </si>
   <si>
     <t>site1</t>
@@ -572,18 +653,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="152.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,234 +681,223 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
         <v>1070</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.385</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>66.377171215880892</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>654</v>
+      </c>
+      <c r="F3">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G3">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>654</v>
-      </c>
-      <c r="E3">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="F3">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
+      <c r="E6">
         <v>1070</v>
       </c>
-      <c r="E4">
+      <c r="F6">
         <v>1.385</v>
       </c>
-      <c r="F4">
+      <c r="G6">
         <v>66.377171215880892</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>654</v>
-      </c>
-      <c r="E5">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="F5">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>1046</v>
-      </c>
-      <c r="E6">
-        <v>1.4259999999999999</v>
-      </c>
-      <c r="F6">
-        <v>64.888337468982627</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>1070</v>
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>1.385</v>
+        <v>654</v>
       </c>
       <c r="F7">
-        <v>66.377171215880892</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G7">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>654</v>
-      </c>
-      <c r="E8">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="F8">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>928</v>
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>1.6080000000000001</v>
+        <v>1046</v>
       </c>
       <c r="F9">
-        <v>57.568238213399503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="G9">
+        <v>64.888337468982627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>1046</v>
-      </c>
-      <c r="E10">
-        <v>1.4259999999999999</v>
-      </c>
-      <c r="F10">
-        <v>64.888337468982627</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
         <v>1070</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.385</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>66.377171215880892</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
         <v>654</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.8919999999999999</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>40.570719602977668</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>491</v>
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
       </c>
       <c r="E13">
-        <v>2.0699999999999998</v>
+        <v>928</v>
       </c>
       <c r="F13">
-        <v>30.459057071960299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="G13">
+        <v>57.568238213399503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -831,471 +905,392 @@
       <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="D14">
-        <v>1089</v>
+      <c r="D14" t="s">
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>1.3240000000000001</v>
+        <v>1046</v>
       </c>
       <c r="F14">
-        <v>67.555831265508687</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="G14">
+        <v>64.888337468982627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>654</v>
-      </c>
-      <c r="E15">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="F15">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>1070</v>
+      </c>
+      <c r="F16">
+        <v>1.385</v>
+      </c>
+      <c r="G16">
+        <v>66.377171215880892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
         <v>654</v>
       </c>
-      <c r="E16">
+      <c r="F17">
         <v>1.8919999999999999</v>
       </c>
-      <c r="F16">
+      <c r="G17">
         <v>40.570719602977668</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>1070</v>
-      </c>
-      <c r="E17">
-        <v>1.385</v>
-      </c>
-      <c r="F17">
-        <v>66.377171215880892</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>654</v>
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1.8919999999999999</v>
+        <v>491</v>
       </c>
       <c r="F18">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G18">
+        <v>30.459057071960299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
         <v>1089</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1.3240000000000001</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>67.555831265508687</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
         <v>654</v>
       </c>
-      <c r="E20">
+      <c r="F21">
         <v>1.8919999999999999</v>
       </c>
-      <c r="F20">
+      <c r="G21">
         <v>40.570719602977668</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>654</v>
-      </c>
-      <c r="E21">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="F21">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22">
-        <v>1103</v>
-      </c>
-      <c r="E22">
-        <v>1.2509999999999999</v>
-      </c>
-      <c r="F22">
-        <v>68.424317617866009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>1070</v>
-      </c>
-      <c r="E23">
-        <v>1.385</v>
-      </c>
-      <c r="F23">
-        <v>66.377171215880892</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>654</v>
+      </c>
+      <c r="F24">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G24">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>6</v>
       </c>
-      <c r="D24">
-        <v>654</v>
-      </c>
-      <c r="E24">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="F24">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25">
-        <v>1089</v>
-      </c>
-      <c r="E25">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="F25">
-        <v>67.555831265508687</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>654</v>
-      </c>
-      <c r="E26">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="F26">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27">
-        <v>1089</v>
+      <c r="D27" t="s">
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>1.3240000000000001</v>
+        <v>1070</v>
       </c>
       <c r="F27">
-        <v>67.555831265508687</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.385</v>
+      </c>
+      <c r="G27">
+        <v>66.377171215880892</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28">
         <v>654</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1.8919999999999999</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>40.570719602977668</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29">
-        <v>1018</v>
-      </c>
-      <c r="E29">
-        <v>1.482</v>
-      </c>
-      <c r="F29">
-        <v>63.151364764268003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30">
-        <v>679</v>
-      </c>
       <c r="E30">
-        <v>1.871</v>
+        <v>1089</v>
       </c>
       <c r="F30">
-        <v>42.121588089330032</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="G30">
+        <v>67.555831265508687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31">
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32">
         <v>654</v>
       </c>
-      <c r="E31">
+      <c r="F32">
         <v>1.8919999999999999</v>
       </c>
-      <c r="F31">
+      <c r="G32">
         <v>40.570719602977668</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32">
-        <v>766</v>
-      </c>
-      <c r="E32">
-        <v>1.7889999999999999</v>
-      </c>
-      <c r="F32">
-        <v>47.518610421836229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33">
-        <v>708</v>
-      </c>
-      <c r="E33">
-        <v>1.845</v>
-      </c>
-      <c r="F33">
-        <v>43.920595533498762</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34">
-        <v>1089</v>
-      </c>
-      <c r="E34">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="F34">
-        <v>67.555831265508687</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="1">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35">
-        <v>1070</v>
-      </c>
-      <c r="E35">
-        <v>1.385</v>
-      </c>
-      <c r="F35">
-        <v>66.377171215880892</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="1">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36">
-        <v>273</v>
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
       </c>
       <c r="E36">
-        <v>2.4249999999999998</v>
+        <v>654</v>
       </c>
       <c r="F36">
-        <v>16.93548387096774</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G36">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="1">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37">
-        <v>491</v>
-      </c>
-      <c r="E37">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="F37">
-        <v>30.459057071960299</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38">
-        <v>1070</v>
+        <v>34</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
       </c>
       <c r="E38">
-        <v>1.385</v>
+        <v>1103</v>
       </c>
       <c r="F38">
-        <v>66.377171215880892</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.2509999999999999</v>
+      </c>
+      <c r="G38">
+        <v>68.424317617866009</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="1">
         <v>1</v>
@@ -1303,894 +1298,1702 @@
       <c r="C39" t="s">
         <v>12</v>
       </c>
-      <c r="D39">
-        <v>491</v>
-      </c>
-      <c r="E39">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="F39">
-        <v>30.459057071960299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
       <c r="B40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40">
-        <v>1089</v>
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>1.3240000000000001</v>
+        <v>1070</v>
       </c>
       <c r="F40">
-        <v>67.555831265508687</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.385</v>
+      </c>
+      <c r="G40">
+        <v>66.377171215880892</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
         <v>654</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>1.8919999999999999</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>40.570719602977668</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
-        <v>33</v>
-      </c>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="2"/>
       <c r="B42" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42">
-        <v>348</v>
-      </c>
-      <c r="E42">
-        <v>2.278</v>
-      </c>
-      <c r="F42">
-        <v>21.588089330024811</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43">
-        <v>1046</v>
+        <v>22</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
       </c>
       <c r="E43">
-        <v>1.4259999999999999</v>
+        <v>1089</v>
       </c>
       <c r="F43">
-        <v>64.888337468982627</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="G43">
+        <v>67.555831265508687</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44">
-        <v>1070</v>
-      </c>
-      <c r="E44">
-        <v>1.385</v>
-      </c>
-      <c r="F44">
-        <v>66.377171215880892</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45">
         <v>654</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>1.8919999999999999</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>40.570719602977668</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="2"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B46" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46">
-        <v>928</v>
+        <v>22</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
       </c>
       <c r="E46">
-        <v>1.6080000000000001</v>
+        <v>1089</v>
       </c>
       <c r="F46">
-        <v>57.568238213399503</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="G46">
+        <v>67.555831265508687</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="2"/>
       <c r="B47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47">
-        <v>1046</v>
-      </c>
-      <c r="E47">
-        <v>1.4259999999999999</v>
-      </c>
-      <c r="F47">
-        <v>64.888337468982627</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48">
-        <v>1070</v>
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
       </c>
       <c r="E48">
-        <v>1.385</v>
+        <v>654</v>
       </c>
       <c r="F48">
-        <v>66.377171215880892</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G48">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49">
-        <v>792</v>
-      </c>
-      <c r="E49">
-        <v>1.76</v>
-      </c>
-      <c r="F49">
-        <v>49.131513647642677</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B50" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50">
-        <v>654</v>
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
       </c>
       <c r="E50">
-        <v>1.8919999999999999</v>
+        <v>1018</v>
       </c>
       <c r="F50">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.482</v>
+      </c>
+      <c r="G50">
+        <v>63.151364764268003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51">
-        <v>928</v>
+        <v>42</v>
+      </c>
+      <c r="D51" t="s">
+        <v>43</v>
       </c>
       <c r="E51">
-        <v>1.6080000000000001</v>
+        <v>679</v>
       </c>
       <c r="F51">
-        <v>57.568238213399503</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>1.871</v>
+      </c>
+      <c r="G51">
+        <v>42.121588089330032</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="2"/>
       <c r="B52" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52">
-        <v>1089</v>
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
       </c>
       <c r="E52">
-        <v>1.3240000000000001</v>
+        <v>654</v>
       </c>
       <c r="F52">
-        <v>67.555831265508687</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="2"/>
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G52">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="B53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53">
-        <v>1070</v>
+        <v>45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>46</v>
       </c>
       <c r="E53">
-        <v>1.385</v>
+        <v>766</v>
       </c>
       <c r="F53">
-        <v>66.377171215880892</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.7889999999999999</v>
+      </c>
+      <c r="G53">
+        <v>47.518610421836229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1">
         <v>2</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55">
+        <v>708</v>
+      </c>
+      <c r="F55">
+        <v>1.845</v>
+      </c>
+      <c r="G55">
+        <v>43.920595533498762</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56">
+        <v>1089</v>
+      </c>
+      <c r="F56">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="G56">
+        <v>67.555831265508687</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
         <v>6</v>
       </c>
-      <c r="D54">
-        <v>654</v>
-      </c>
-      <c r="E54">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="F54">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="1">
-        <v>0</v>
-      </c>
-      <c r="C55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55">
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57">
         <v>1070</v>
       </c>
-      <c r="E55">
+      <c r="F57">
         <v>1.385</v>
       </c>
-      <c r="F55">
+      <c r="G57">
         <v>66.377171215880892</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="2"/>
-      <c r="B56" s="1">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56">
-        <v>654</v>
-      </c>
-      <c r="E56">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="F56">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="1">
-        <v>0</v>
-      </c>
-      <c r="C57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57">
-        <v>1089</v>
-      </c>
-      <c r="E57">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="F57">
-        <v>67.555831265508687</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="B58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58">
-        <v>654</v>
+        <v>50</v>
+      </c>
+      <c r="D58" t="s">
+        <v>51</v>
       </c>
       <c r="E58">
-        <v>1.8919999999999999</v>
+        <v>273</v>
       </c>
       <c r="F58">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="G58">
+        <v>16.93548387096774</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="2"/>
       <c r="B59" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59">
-        <v>654</v>
+        <v>19</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
       </c>
       <c r="E59">
-        <v>1.8919999999999999</v>
+        <v>491</v>
       </c>
       <c r="F59">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G59">
+        <v>30.459057071960299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60">
-        <v>654</v>
-      </c>
-      <c r="E60">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="F60">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="1">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61">
-        <v>928</v>
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
       </c>
       <c r="E61">
-        <v>1.6080000000000001</v>
+        <v>1070</v>
       </c>
       <c r="F61">
-        <v>57.568238213399503</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>1.385</v>
+      </c>
+      <c r="G61">
+        <v>66.377171215880892</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="2"/>
       <c r="B62" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62">
+        <v>491</v>
+      </c>
+      <c r="F62">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G62">
+        <v>30.459057071960299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63">
+        <v>1089</v>
+      </c>
+      <c r="F63">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="G63">
+        <v>67.555831265508687</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="2"/>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64">
+        <v>654</v>
+      </c>
+      <c r="F64">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G64">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65">
+        <v>348</v>
+      </c>
+      <c r="F65">
+        <v>2.278</v>
+      </c>
+      <c r="G65">
+        <v>21.588089330024811</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="2"/>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
         <v>14</v>
       </c>
-      <c r="D62">
-        <v>1089</v>
-      </c>
-      <c r="E62">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="F62">
-        <v>67.555831265508687</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="2"/>
-      <c r="B63" s="1">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66">
+        <v>1046</v>
+      </c>
+      <c r="F66">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="G66">
+        <v>64.888337468982627</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="2"/>
+      <c r="B67" s="1">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" s="2"/>
+      <c r="B68" s="1">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
         <v>6</v>
       </c>
-      <c r="D63">
-        <v>654</v>
-      </c>
-      <c r="E63">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="F63">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="1">
-        <v>0</v>
-      </c>
-      <c r="C64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64">
-        <v>654</v>
-      </c>
-      <c r="E64">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="F64">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="1">
-        <v>0</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65">
-        <v>654</v>
-      </c>
-      <c r="E65">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="F65">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" s="1">
-        <v>0</v>
-      </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66">
-        <v>654</v>
-      </c>
-      <c r="E66">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="F66">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="1">
-        <v>0</v>
-      </c>
-      <c r="C67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67">
-        <v>654</v>
-      </c>
-      <c r="E67">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="F67">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="1">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68">
-        <v>996</v>
+      <c r="D68" t="s">
+        <v>7</v>
       </c>
       <c r="E68">
-        <v>1.516</v>
+        <v>1070</v>
       </c>
       <c r="F68">
-        <v>61.786600496277913</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.385</v>
+      </c>
+      <c r="G68">
+        <v>66.377171215880892</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="B69" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69">
         <v>654</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>1.8919999999999999</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>40.570719602977668</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="2" t="s">
-        <v>49</v>
-      </c>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" s="2"/>
       <c r="B70" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70">
-        <v>654</v>
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
       </c>
       <c r="E70">
-        <v>1.8919999999999999</v>
+        <v>928</v>
       </c>
       <c r="F70">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="2"/>
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="G70">
+        <v>57.568238213399503</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="B71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71">
-        <v>491</v>
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
       </c>
       <c r="E71">
-        <v>2.0699999999999998</v>
+        <v>1046</v>
       </c>
       <c r="F71">
-        <v>30.459057071960299</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="G71">
+        <v>64.888337468982627</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
       <c r="B72" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72">
-        <v>1046</v>
-      </c>
-      <c r="E72">
-        <v>1.4259999999999999</v>
-      </c>
-      <c r="F72">
-        <v>64.888337468982627</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
       <c r="B73" s="1">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73">
+        <v>1070</v>
+      </c>
+      <c r="F73">
+        <v>1.385</v>
+      </c>
+      <c r="G73">
+        <v>66.377171215880892</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="2"/>
+      <c r="B74" s="1">
         <v>3</v>
       </c>
-      <c r="C73" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73">
-        <v>1070</v>
-      </c>
-      <c r="E73">
-        <v>1.385</v>
-      </c>
-      <c r="F73">
-        <v>66.377171215880892</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B74" s="1">
-        <v>0</v>
-      </c>
       <c r="C74" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74">
-        <v>1089</v>
+        <v>58</v>
+      </c>
+      <c r="D74" t="s">
+        <v>59</v>
       </c>
       <c r="E74">
-        <v>1.3240000000000001</v>
+        <v>792</v>
       </c>
       <c r="F74">
-        <v>67.555831265508687</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.76</v>
+      </c>
+      <c r="G74">
+        <v>49.131513647642677</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
       <c r="B75" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75">
         <v>654</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>1.8919999999999999</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>40.570719602977668</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
       <c r="B76" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76">
-        <v>1046</v>
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
       </c>
       <c r="E76">
-        <v>1.4259999999999999</v>
+        <v>928</v>
       </c>
       <c r="F76">
-        <v>64.888337468982627</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="G76">
+        <v>57.568238213399503</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77">
-        <v>654</v>
+        <v>22</v>
+      </c>
+      <c r="D77" t="s">
+        <v>23</v>
       </c>
       <c r="E77">
-        <v>1.8919999999999999</v>
+        <v>1089</v>
       </c>
       <c r="F77">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="G77">
+        <v>67.555831265508687</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
       <c r="B78" s="1">
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78">
-        <v>491</v>
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
       </c>
       <c r="E78">
-        <v>2.0699999999999998</v>
+        <v>1070</v>
       </c>
       <c r="F78">
-        <v>30.459057071960299</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.385</v>
+      </c>
+      <c r="G78">
+        <v>66.377171215880892</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
       <c r="B79" s="1">
         <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79">
+        <v>654</v>
+      </c>
+      <c r="F79">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G79">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" s="2"/>
+      <c r="B80" s="1">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" s="2"/>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82">
         <v>1070</v>
       </c>
-      <c r="E79">
+      <c r="F82">
         <v>1.385</v>
       </c>
-      <c r="F79">
+      <c r="G82">
         <v>66.377171215880892</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B80" s="1">
-        <v>0</v>
-      </c>
-      <c r="C80" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80">
-        <v>1089</v>
-      </c>
-      <c r="E80">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="F80">
-        <v>67.555831265508687</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="2"/>
-      <c r="B81" s="1">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81">
-        <v>654</v>
-      </c>
-      <c r="E81">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="F81">
-        <v>40.570719602977668</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B82" s="1">
-        <v>0</v>
-      </c>
-      <c r="C82" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82">
-        <v>1089</v>
-      </c>
-      <c r="E82">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="F82">
-        <v>67.555831265508687</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83">
         <v>654</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>1.8919999999999999</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>40.570719602977668</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
       <c r="B84" s="1">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85">
+        <v>1089</v>
+      </c>
+      <c r="F85">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="G85">
+        <v>67.555831265508687</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" s="2"/>
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86">
+        <v>654</v>
+      </c>
+      <c r="F86">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G86">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87" s="2"/>
+      <c r="B87" s="1">
         <v>2</v>
       </c>
-      <c r="C84" t="s">
-        <v>28</v>
-      </c>
-      <c r="D84">
+      <c r="C87" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" s="2"/>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89">
+        <v>654</v>
+      </c>
+      <c r="F89">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G89">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90" s="2"/>
+      <c r="B90" s="1">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92" s="2"/>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92">
+        <v>654</v>
+      </c>
+      <c r="F92">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G92">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93" s="2"/>
+      <c r="B93" s="1">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93">
+        <v>928</v>
+      </c>
+      <c r="F93">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="G93">
+        <v>57.568238213399503</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94">
+        <v>1089</v>
+      </c>
+      <c r="F94">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="G94">
+        <v>67.555831265508687</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" s="2"/>
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95">
+        <v>654</v>
+      </c>
+      <c r="F95">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G95">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97" s="2"/>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97">
+        <v>654</v>
+      </c>
+      <c r="F97">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G97">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99" s="2"/>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99">
+        <v>654</v>
+      </c>
+      <c r="F99">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G99">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100" s="2"/>
+      <c r="B100" s="1">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A102" s="2"/>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102">
+        <v>654</v>
+      </c>
+      <c r="F102">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G102">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104" s="2"/>
+      <c r="B104" s="1">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104">
+        <v>654</v>
+      </c>
+      <c r="F104">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G104">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>73</v>
+      </c>
+      <c r="D105" t="s">
+        <v>74</v>
+      </c>
+      <c r="E105">
+        <v>996</v>
+      </c>
+      <c r="F105">
+        <v>1.516</v>
+      </c>
+      <c r="G105">
+        <v>61.786600496277913</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" s="2"/>
+      <c r="B106" s="1">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107" s="2"/>
+      <c r="B107" s="1">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107">
+        <v>654</v>
+      </c>
+      <c r="F107">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G107">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108" s="2"/>
+      <c r="B108" s="1">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109">
+        <v>654</v>
+      </c>
+      <c r="F109">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G109">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110" s="2"/>
+      <c r="B110" s="1">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A111" s="2"/>
+      <c r="B111" s="1">
+        <v>2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111">
+        <v>491</v>
+      </c>
+      <c r="F111">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G111">
+        <v>30.459057071960299</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A112" s="2"/>
+      <c r="B112" s="1">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112">
+        <v>1046</v>
+      </c>
+      <c r="F112">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="G112">
+        <v>64.888337468982627</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A113" s="2"/>
+      <c r="B113" s="1">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113">
+        <v>1070</v>
+      </c>
+      <c r="F113">
+        <v>1.385</v>
+      </c>
+      <c r="G113">
+        <v>66.377171215880892</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A114" s="2"/>
+      <c r="B114" s="1">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B115" s="1">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115">
+        <v>1089</v>
+      </c>
+      <c r="F115">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="G115">
+        <v>67.555831265508687</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A116" s="2"/>
+      <c r="B116" s="1">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A117" s="2"/>
+      <c r="B117" s="1">
+        <v>2</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117">
+        <v>654</v>
+      </c>
+      <c r="F117">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G117">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A118" s="2"/>
+      <c r="B118" s="1">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A119" s="2"/>
+      <c r="B119" s="1">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119">
+        <v>1046</v>
+      </c>
+      <c r="F119">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="G119">
+        <v>64.888337468982627</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120">
+        <v>654</v>
+      </c>
+      <c r="F120">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G120">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A121" s="2"/>
+      <c r="B121" s="1">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A122" s="2"/>
+      <c r="B122" s="1">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122">
+        <v>491</v>
+      </c>
+      <c r="F122">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G122">
+        <v>30.459057071960299</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A123" s="2"/>
+      <c r="B123" s="1">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123">
+        <v>1070</v>
+      </c>
+      <c r="F123">
+        <v>1.385</v>
+      </c>
+      <c r="G123">
+        <v>66.377171215880892</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A124" s="2"/>
+      <c r="B124" s="1">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A125" s="2"/>
+      <c r="B125" s="1">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126">
+        <v>1089</v>
+      </c>
+      <c r="F126">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="G126">
+        <v>67.555831265508687</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A127" s="2"/>
+      <c r="B127" s="1">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A128" s="2"/>
+      <c r="B128" s="1">
+        <v>2</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128">
+        <v>654</v>
+      </c>
+      <c r="F128">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G128">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A129" s="2"/>
+      <c r="B129" s="1">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A130" s="2"/>
+      <c r="B130" s="1">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" t="s">
+        <v>23</v>
+      </c>
+      <c r="E131">
+        <v>1089</v>
+      </c>
+      <c r="F131">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="G131">
+        <v>67.555831265508687</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A132" s="2"/>
+      <c r="B132" s="1">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A133" s="2"/>
+      <c r="B133" s="1">
+        <v>2</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133">
+        <v>654</v>
+      </c>
+      <c r="F133">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G133">
+        <v>40.570719602977668</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A134" s="2"/>
+      <c r="B134" s="1">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A135" s="2"/>
+      <c r="B135" s="1">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>47</v>
+      </c>
+      <c r="D135" t="s">
+        <v>48</v>
+      </c>
+      <c r="E135">
         <v>708</v>
       </c>
-      <c r="E84">
+      <c r="F135">
         <v>1.845</v>
       </c>
-      <c r="F84">
+      <c r="G135">
         <v>43.920595533498762</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A33"/>
+  <mergeCells count="35">
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2202,44 +3005,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="152.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>261081</v>
@@ -2253,16 +3054,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>261081</v>
@@ -2276,16 +3077,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>242644</v>
@@ -2303,10 +3104,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>228490</v>
@@ -2324,10 +3125,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>221354</v>
@@ -2345,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>261081</v>
@@ -2366,10 +3167,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>248494</v>
@@ -2387,10 +3188,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>28218</v>
@@ -2404,16 +3205,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>242644</v>
@@ -2431,10 +3232,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>228490</v>
@@ -2452,10 +3253,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>240685</v>
@@ -2473,10 +3274,10 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>261081</v>
@@ -2494,10 +3295,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>256848</v>
@@ -2515,10 +3316,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>2713</v>
@@ -2532,16 +3333,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>239731</v>
@@ -2555,16 +3356,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>261081</v>
@@ -2578,16 +3379,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>239731</v>
@@ -2601,16 +3402,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>219396</v>
@@ -2628,10 +3429,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>48577</v>
@@ -2649,10 +3450,10 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>261081</v>
@@ -2666,16 +3467,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>239731</v>
@@ -2689,16 +3490,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>239731</v>
@@ -2712,16 +3513,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>236062</v>
@@ -2739,10 +3540,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>208926</v>
@@ -2760,10 +3561,10 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>232176</v>
@@ -2777,16 +3578,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E27">
         <v>17523</v>
@@ -2800,16 +3601,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>114044</v>
@@ -2827,10 +3628,10 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E29">
         <v>165403</v>
@@ -2848,10 +3649,10 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E30">
         <v>231724</v>
@@ -2869,10 +3670,10 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>256848</v>
@@ -2890,10 +3691,10 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>210666</v>
@@ -2907,16 +3708,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>256848</v>
@@ -2930,16 +3731,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E34">
         <v>239731</v>
@@ -2953,16 +3754,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>185431</v>
@@ -2980,10 +3781,10 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E36">
         <v>115602</v>
@@ -3001,10 +3802,10 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <v>242644</v>
@@ -3022,10 +3823,10 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E38">
         <v>228490</v>
@@ -3043,10 +3844,10 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>221354</v>
@@ -3064,10 +3865,10 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E40">
         <v>261081</v>
@@ -3085,10 +3886,10 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>248494</v>
@@ -3106,10 +3907,10 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>28218</v>
@@ -3123,16 +3924,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E43">
         <v>242644</v>
@@ -3150,10 +3951,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E44">
         <v>175356</v>
@@ -3171,10 +3972,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E45">
         <v>228490</v>
@@ -3192,10 +3993,10 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>221354</v>
@@ -3213,10 +4014,10 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E47">
         <v>198922</v>
@@ -3234,10 +4035,10 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E48">
         <v>261081</v>
@@ -3255,10 +4056,10 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>248494</v>
@@ -3276,10 +4077,10 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E50">
         <v>6876</v>
@@ -3297,10 +4098,10 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>40385</v>
@@ -3318,10 +4119,10 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>28218</v>
@@ -3335,16 +4136,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E53">
         <v>114044</v>
@@ -3362,10 +4163,10 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E54">
         <v>239731</v>
@@ -3383,10 +4184,10 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E55">
         <v>261081</v>
@@ -3400,16 +4201,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E56">
         <v>261081</v>
@@ -3423,16 +4224,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E57">
         <v>239731</v>
@@ -3446,16 +4247,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E58">
         <v>28218</v>
@@ -3469,16 +4270,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E59">
         <v>239731</v>
@@ -3492,16 +4293,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E60">
         <v>60223</v>
@@ -3515,16 +4316,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E61">
         <v>2713</v>
@@ -3542,10 +4343,10 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E62">
         <v>228490</v>
@@ -3563,10 +4364,10 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E63">
         <v>261081</v>
@@ -3584,10 +4385,10 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>240685</v>
@@ -3605,10 +4406,10 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E65">
         <v>256848</v>
@@ -3626,10 +4427,10 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E66">
         <v>242644</v>
@@ -3643,16 +4444,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E67">
         <v>239731</v>
@@ -3670,10 +4471,10 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E68">
         <v>172885</v>
@@ -3691,10 +4492,10 @@
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E69">
         <v>228490</v>
@@ -3708,16 +4509,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E70">
         <v>2713</v>
@@ -3735,10 +4536,10 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E71">
         <v>261081</v>
@@ -3756,10 +4557,10 @@
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>256848</v>
@@ -3773,16 +4574,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E73">
         <v>239731</v>
@@ -3796,16 +4597,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D74" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E74">
         <v>239731</v>
@@ -3823,10 +4624,10 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E75">
         <v>190842</v>
@@ -3844,10 +4645,10 @@
         <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D76" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E76">
         <v>22801</v>
@@ -3876,7 +4677,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3895,10 +4695,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
